--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="产值产量汇总表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -216,16 +229,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-10804]#,##0.0;\-#,##0.0;&quot;&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="[$-10804]#,##0.0;\-#,##0.0;&quot;&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="27">
@@ -276,55 +289,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,6 +346,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -414,7 +406,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,49 +454,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,121 +592,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,21 +710,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -740,6 +738,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,148 +811,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,22 +963,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,15 +1023,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1028,7 +1041,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1047,52 +1060,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1411,7 +1424,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1675,9 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="产值产量汇总表" sheetId="1" r:id="rId1"/>
@@ -1407,12 +1407,12 @@
   <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1674,7 +1674,7 @@
   <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="产值产量汇总表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="船舶产值产量汇总表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1655,29 +1654,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
@@ -30,7 +30,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
-    <t>{{dateTime}}产值产量汇总表</t>
+    <r>
+      <t xml:space="preserve">{{dateTime}}产值产量汇总表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(广航局总计数据已去除内部计价)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">产量单位：万m³      产值单位：万元  </t>
@@ -240,7 +252,7 @@
     <numFmt numFmtId="179" formatCode="[$-10804]#,##0.0;\-#,##0.0;&quot;&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +442,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -955,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +996,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1411,7 +1432,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:C2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1427,213 +1448,213 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="25" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:18">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:18">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:19">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="20"/>
       <c r="S5"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:18">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="25" t="s">
         <v>53</v>
       </c>
     </row>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthOutPutTemplate.xlsx
@@ -30,19 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
-    <r>
-      <t xml:space="preserve">{{dateTime}}产值产量汇总表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(广航局总计数据已去除内部计价)</t>
-    </r>
+    <t>(广航局总计数据已去除内部计价)</t>
   </si>
   <si>
     <t xml:space="preserve">产量单位：万m³      产值单位：万元  </t>
@@ -284,6 +272,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -443,12 +437,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -656,21 +644,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,6 +675,37 @@
       <top style="thin">
         <color theme="0" tint="-0.149998474074526"/>
       </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.149998474074526"/>
       </bottom>
@@ -843,137 +853,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,57 +1011,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1064,16 +1079,16 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1432,7 +1447,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1444,40 +1459,40 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="29" customHeight="1" spans="1:3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:18">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:18">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="26" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="16"/>
@@ -1486,7 +1501,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="16"/>
@@ -1494,177 +1509,179 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:18">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:19">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="21"/>
       <c r="S5"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:18">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="26" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:R3"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
